--- a/UK_Covid_19_cases_apr22.xlsx
+++ b/UK_Covid_19_cases_apr22.xlsx
@@ -20,18 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">Date</t>
+    <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">new_diagnoses</t>
+    <t xml:space="preserve">cum_diagnoses</t>
   </si>
   <si>
-    <t xml:space="preserve">n_severe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_deaths</t>
+    <t xml:space="preserve">cum_deaths</t>
   </si>
 </sst>
 </file>
@@ -235,21 +232,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="39.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="39.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="12.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="7" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -262,10 +259,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
@@ -274,11 +268,10 @@
       <c r="B2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2"/>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
@@ -287,11 +280,10 @@
       <c r="B3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2"/>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
@@ -300,11 +292,10 @@
       <c r="B4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2"/>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
@@ -313,11 +304,10 @@
       <c r="B5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2"/>
+      <c r="C5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
@@ -326,11 +316,10 @@
       <c r="B6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2"/>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
@@ -339,11 +328,10 @@
       <c r="B7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2"/>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
@@ -352,11 +340,10 @@
       <c r="B8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2"/>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
@@ -365,11 +352,10 @@
       <c r="B9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2"/>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
@@ -378,11 +364,10 @@
       <c r="B10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2"/>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
@@ -391,11 +376,10 @@
       <c r="B11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2"/>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
@@ -404,12 +388,11 @@
       <c r="B12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="4"/>
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
@@ -418,12 +401,11 @@
       <c r="B13" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="4"/>
+      <c r="C13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
@@ -432,848 +414,844 @@
       <c r="B14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
         <v>43864</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
         <v>43865</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <v>43866</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
         <v>43867</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
         <v>43868</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
         <v>43869</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
         <v>43870</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
         <v>43871</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D22" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
         <v>43872</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D23" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
         <v>43873</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D24" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="n">
         <v>43874</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D25" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
         <v>43875</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D26" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
         <v>43876</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="n">
         <v>43877</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D28" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="n">
         <v>43878</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D29" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="n">
         <v>43879</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D30" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
         <v>43880</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D31" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="n">
         <v>43881</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D32" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="n">
         <v>43882</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D33" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="n">
         <v>43883</v>
       </c>
       <c r="B34" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D34" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="n">
         <v>43884</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D35" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="n">
         <v>43885</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D36" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="n">
         <v>43886</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="D37" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="n">
         <v>43887</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="D38" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="n">
         <v>43888</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="D39" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="n">
         <v>43889</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D40" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="n">
         <v>43890</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="D41" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="n">
         <v>43891</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="D42" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="n">
         <v>43892</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="D43" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="n">
         <v>43893</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="D44" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="n">
         <v>43894</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="D45" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="n">
         <v>43895</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="D46" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="n">
         <v>43896</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>118</v>
       </c>
-      <c r="D47" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="n">
         <v>43897</v>
       </c>
       <c r="B48" s="2" t="n">
         <v>167</v>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="C48" s="2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="n">
         <v>43898</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>210</v>
       </c>
-      <c r="D49" s="2" t="n">
+      <c r="C49" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="n">
         <v>43899</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>277</v>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="C50" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="n">
         <v>43900</v>
       </c>
       <c r="B51" s="2" t="n">
         <v>323</v>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="C51" s="2" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="n">
         <v>43901</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>373</v>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="C52" s="2" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="n">
         <v>43902</v>
       </c>
       <c r="B53" s="2" t="n">
         <v>460</v>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="C53" s="2" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="n">
         <v>43903</v>
       </c>
       <c r="B54" s="2" t="n">
         <v>594</v>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="C54" s="2" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="n">
         <v>43904</v>
       </c>
       <c r="B55" s="2" t="n">
         <v>802</v>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="C55" s="2" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="n">
         <v>43905</v>
       </c>
       <c r="B56" s="2" t="n">
         <v>1144</v>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="C56" s="2" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="n">
         <v>43906</v>
       </c>
       <c r="B57" s="2" t="n">
         <v>1395</v>
       </c>
-      <c r="D57" s="2" t="n">
+      <c r="C57" s="2" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="n">
         <v>43907</v>
       </c>
       <c r="B58" s="2" t="n">
         <v>1547</v>
       </c>
-      <c r="D58" s="2" t="n">
+      <c r="C58" s="2" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="n">
         <v>43908</v>
       </c>
       <c r="B59" s="2" t="n">
         <v>1954</v>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="C59" s="2" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="n">
         <v>43909</v>
       </c>
       <c r="B60" s="2" t="n">
         <v>2630</v>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="C60" s="2" t="n">
         <v>103</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="n">
         <v>43910</v>
       </c>
       <c r="B61" s="2" t="n">
         <v>3277</v>
       </c>
-      <c r="D61" s="5" t="n">
+      <c r="C61" s="5" t="n">
         <v>144</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="n">
         <v>43911</v>
       </c>
       <c r="B62" s="2" t="n">
         <v>3983</v>
       </c>
-      <c r="D62" s="2" t="n">
+      <c r="C62" s="2" t="n">
         <v>177</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="n">
         <v>43912</v>
       </c>
       <c r="B63" s="2" t="n">
         <v>5018</v>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="C63" s="2" t="n">
         <v>233</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="n">
         <v>43913</v>
       </c>
       <c r="B64" s="2" t="n">
         <v>5687</v>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="C64" s="2" t="n">
         <v>281</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="n">
         <v>43914</v>
       </c>
       <c r="B65" s="2" t="n">
         <v>6654</v>
       </c>
-      <c r="D65" s="2" t="n">
+      <c r="C65" s="2" t="n">
         <v>336</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="n">
         <v>43915</v>
       </c>
       <c r="B66" s="2" t="n">
         <v>8081</v>
       </c>
-      <c r="D66" s="2" t="n">
+      <c r="C66" s="2" t="n">
         <v>422</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="n">
         <v>43916</v>
       </c>
       <c r="B67" s="2" t="n">
         <v>9533</v>
       </c>
-      <c r="D67" s="2" t="n">
+      <c r="C67" s="2" t="n">
         <v>463</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="n">
         <v>43917</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>11662</v>
       </c>
-      <c r="D68" s="1" t="n">
+      <c r="C68" s="1" t="n">
         <v>578</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="n">
         <v>43918</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>14547</v>
       </c>
-      <c r="D69" s="1" t="n">
+      <c r="C69" s="1" t="n">
         <v>759</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="n">
         <v>43919</v>
       </c>
       <c r="B70" s="6" t="n">
         <v>17093</v>
       </c>
-      <c r="D70" s="1" t="n">
+      <c r="C70" s="1" t="n">
         <v>1019</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="n">
         <v>43920</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>19526</v>
       </c>
-      <c r="D71" s="1" t="n">
+      <c r="C71" s="1" t="n">
         <v>1228</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="n">
         <v>43921</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>22145</v>
       </c>
-      <c r="D72" s="1" t="n">
+      <c r="C72" s="1" t="n">
         <v>1408</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="n">
         <v>43922</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>25254</v>
       </c>
-      <c r="D73" s="1" t="n">
+      <c r="C73" s="1" t="n">
         <v>1789</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="n">
         <v>43923</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>29478</v>
       </c>
-      <c r="D74" s="1" t="n">
+      <c r="C74" s="1" t="n">
         <v>2532</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="n">
         <v>43924</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>33722</v>
       </c>
-      <c r="D75" s="1" t="n">
+      <c r="C75" s="1" t="n">
         <v>2921</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="n">
         <v>43925</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>38172</v>
       </c>
-      <c r="D76" s="1" t="n">
+      <c r="C76" s="1" t="n">
         <v>3605</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="n">
         <v>43926</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>41907</v>
       </c>
-      <c r="D77" s="1" t="n">
+      <c r="C77" s="1" t="n">
         <v>4313</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="n">
         <v>43927</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>47810</v>
       </c>
-      <c r="D78" s="1" t="n">
+      <c r="C78" s="1" t="n">
         <v>4934</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="n">
         <v>43928</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>51612</v>
       </c>
-      <c r="D79" s="1" t="n">
+      <c r="C79" s="1" t="n">
         <v>5373</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="n">
         <v>43929</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>55246</v>
       </c>
-      <c r="D80" s="1" t="n">
+      <c r="C80" s="1" t="n">
         <v>6159</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="n">
         <v>43930</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>60737</v>
       </c>
-      <c r="D81" s="1" t="n">
+      <c r="C81" s="1" t="n">
         <v>7097</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="n">
         <v>43931</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>65081</v>
       </c>
-      <c r="D82" s="1" t="n">
+      <c r="C82" s="1" t="n">
         <v>7978</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="n">
         <v>43932</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>70276</v>
       </c>
-      <c r="D83" s="1" t="n">
+      <c r="C83" s="1" t="n">
         <v>8958</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="n">
         <v>43933</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>78995</v>
       </c>
-      <c r="D84" s="1" t="n">
+      <c r="C84" s="1" t="n">
         <v>9875</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="n">
         <v>43934</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>84283</v>
       </c>
-      <c r="D85" s="1" t="n">
+      <c r="C85" s="1" t="n">
         <v>10612</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="n">
         <v>43935</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>88625</v>
       </c>
-      <c r="D86" s="1" t="n">
+      <c r="C86" s="1" t="n">
         <v>11329</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="n">
         <v>43936</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>93877</v>
       </c>
-      <c r="D87" s="1" t="n">
+      <c r="C87" s="1" t="n">
         <v>12107</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="n">
         <v>43937</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>98480</v>
       </c>
-      <c r="D88" s="1" t="n">
+      <c r="C88" s="1" t="n">
         <v>12868</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="n">
         <v>43938</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>103097</v>
       </c>
-      <c r="D89" s="1" t="n">
+      <c r="C89" s="1" t="n">
         <v>13729</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="n">
         <v>43939</v>
       </c>
